--- a/results/mp/logistic/corona/confidence/168/0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>falling</t>
   </si>
   <si>
     <t>avoid</t>
@@ -91,7 +97,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
@@ -100,7 +106,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -112,76 +118,82 @@
     <t>oil</t>
   </si>
   <si>
-    <t>or</t>
+    <t>from</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>prices</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>a</t>
+    <t>in</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
@@ -190,88 +202,82 @@
     <t>strong</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
@@ -280,121 +286,103 @@
     <t>share</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>alert</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>employees</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>we</t>
+    <t>out</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
+    <t>'</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>in</t>
   </si>
 </sst>
 </file>
@@ -752,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +748,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,13 +809,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7705479452054794</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -839,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -871,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7705479452054794</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +959,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.68</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -1039,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5789473684210527</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,49 +1109,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L9">
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>16</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1171,38 +1159,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5490196078431373</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L10">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1213,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1224,10 +1212,10 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1239,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8407310704960835</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1263,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1271,13 +1259,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5135135135135135</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1289,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.856020942408377</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1321,13 +1309,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1339,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.8301886792452831</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4406779661016949</v>
+        <v>0.4437984496124031</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1389,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.8181818181818182</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1413,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1421,13 +1409,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4338624338624338</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C15">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1439,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.8125</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1463,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1471,13 +1459,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4302325581395349</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C16">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1489,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.8048780487804879</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1513,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,13 +1509,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.40625</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1539,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.7948717948717948</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1563,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1571,13 +1559,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3818181818181818</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1589,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.7931034482758621</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1613,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1621,13 +1609,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3422818791946309</v>
+        <v>0.325</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1639,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>0.7816901408450704</v>
+        <v>0.80625</v>
       </c>
       <c r="L19">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M19">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1671,13 +1659,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3066666666666666</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1689,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.765625</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L20">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1713,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1721,13 +1709,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3035714285714285</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1739,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1763,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1771,13 +1759,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2305555555555556</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C22">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1789,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1813,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1821,13 +1809,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1777777777777778</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1839,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1863,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1871,13 +1859,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.130952380952381</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1889,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.765625</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1913,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1921,13 +1909,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.09115281501340483</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1939,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>339</v>
+        <v>62</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.74375</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L25">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1963,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,13 +1959,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.06</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1989,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>0.74</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2021,13 +2009,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03532608695652174</v>
+        <v>0.08579088471849866</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2063,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2071,37 +2059,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01986754966887417</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.5900000000000001</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2072</v>
+        <v>286</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2113,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2121,37 +2109,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01972195279663757</v>
+        <v>0.02103559870550162</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="F29">
-        <v>0.8100000000000001</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>3032</v>
+        <v>605</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2163,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2171,37 +2159,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01490825688073395</v>
+        <v>0.01751540707103471</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E30">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="F30">
-        <v>0.5700000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>859</v>
+        <v>3029</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2213,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2221,37 +2209,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01445578231292517</v>
+        <v>0.01440677966101695</v>
       </c>
       <c r="C31">
         <v>34</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="F31">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2318</v>
+        <v>2326</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>0.7083333333333334</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2263,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2271,37 +2259,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01207937877480587</v>
+        <v>0.01367279585101367</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="F32">
-        <v>0.88</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1145</v>
+        <v>2092</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.6976744186046512</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2313,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2321,49 +2309,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01060278814058512</v>
+        <v>0.01152482269503546</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="F33">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>5039</v>
+        <v>1115</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.6842105263157895</v>
+        <v>0.675</v>
       </c>
       <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>27</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>13</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2371,37 +2359,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008768084173608066</v>
+        <v>0.0104940970703979</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="F34">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2413,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,37 +2409,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00732484076433121</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E35">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="F35">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3117</v>
+        <v>5037</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.6323529411764706</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L35">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M35">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2463,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2471,37 +2459,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007248071077858312</v>
+        <v>0.007951356407857811</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="F36">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>4246</v>
+        <v>2121</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.625</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2513,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2521,37 +2509,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007103714227724781</v>
+        <v>0.006778868630201029</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E37">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="F37">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>4892</v>
+        <v>4249</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.6234309623430963</v>
+        <v>0.6192468619246861</v>
       </c>
       <c r="L37">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M37">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2563,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2571,49 +2559,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006960556844547564</v>
+        <v>0.006263048016701462</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E38">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="F38">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2568</v>
+        <v>2380</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.6109215017064846</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2621,13 +2609,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005850396991224405</v>
+        <v>0.006123230003827019</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E39">
         <v>0.79</v>
@@ -2639,39 +2627,63 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2379</v>
+        <v>2597</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.6071428571428571</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.006106248727864848</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>113</v>
+      </c>
+      <c r="E40">
+        <v>0.73</v>
+      </c>
+      <c r="F40">
+        <v>0.27</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4883</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K40">
-        <v>0.5925925925925926</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
         <v>16</v>
@@ -2689,21 +2701,45 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.006045179764556157</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>0.75</v>
+      </c>
+      <c r="F41">
+        <v>0.25</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3124</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.5851063829787234</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2715,21 +2751,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K42">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2741,21 +2777,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>0.5692307692307692</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2767,21 +2803,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>0.5428571428571428</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2793,47 +2829,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>0.5416666666666666</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K46">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2845,21 +2881,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>0.5185185185185185</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2871,21 +2907,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K48">
-        <v>0.5151515151515151</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2897,21 +2933,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2923,21 +2959,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K50">
-        <v>0.4719101123595505</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2949,47 +2985,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K51">
-        <v>0.4634146341463415</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>20</v>
-      </c>
-      <c r="N51">
-        <v>0.95</v>
-      </c>
-      <c r="O51">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K52">
-        <v>0.4509803921568628</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3001,21 +3037,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K53">
-        <v>0.4444444444444444</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3027,21 +3063,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K54">
-        <v>0.4117647058823529</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3053,21 +3089,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K55">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3079,47 +3115,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K56">
-        <v>0.375</v>
+        <v>0.328125</v>
       </c>
       <c r="L56">
         <v>21</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K57">
-        <v>0.3698630136986301</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3131,47 +3167,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K58">
-        <v>0.2711864406779661</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M58">
         <v>16</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K59">
-        <v>0.234375</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3183,21 +3219,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K60">
-        <v>0.2295081967213115</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3209,47 +3245,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K61">
-        <v>0.1238938053097345</v>
+        <v>0.1</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M61">
         <v>14</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K62">
-        <v>0.1209677419354839</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3261,307 +3297,307 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K63">
-        <v>0.08641975308641975</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>148</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K64">
-        <v>0.07027027027027027</v>
+        <v>0.05211726384364821</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>172</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K65">
-        <v>0.05695142378559464</v>
+        <v>0.04796163069544365</v>
       </c>
       <c r="L65">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1126</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K66">
-        <v>0.04796163069544365</v>
+        <v>0.04036697247706422</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>397</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K67">
-        <v>0.04567307692307692</v>
+        <v>0.03549695740365112</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>397</v>
+        <v>951</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K68">
-        <v>0.04545454545454546</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="L68">
         <v>14</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>294</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K69">
-        <v>0.03846153846153846</v>
+        <v>0.03125</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>525</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="K70">
-        <v>0.0327683615819209</v>
+        <v>0.02700096432015429</v>
       </c>
       <c r="L70">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="O70">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2568</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K71">
-        <v>0.03130755064456722</v>
+        <v>0.02558398220244716</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>526</v>
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>0.02995008319467554</v>
+        <v>0.02258185923974407</v>
       </c>
       <c r="L72">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N72">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="O72">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>583</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>0.02753441802252816</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N73">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="O73">
-        <v>0.07999999999999996</v>
+        <v>0.23</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>777</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K74">
-        <v>0.02738336713995943</v>
+        <v>0.01883633319380494</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N74">
         <v>0.9</v>
@@ -3573,33 +3609,33 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>959</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>0.02444444444444445</v>
+        <v>0.01822752985543683</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>878</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3607,77 +3643,77 @@
         <v>118</v>
       </c>
       <c r="K76">
-        <v>0.02329192546583851</v>
+        <v>0.01752190237797246</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N76">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="O76">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>629</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>0.02217936354869817</v>
+        <v>0.01671365283930729</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="N77">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="O77">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1014</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="K78">
-        <v>0.0213903743315508</v>
+        <v>0.01644479248238058</v>
       </c>
       <c r="L78">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N78">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="O78">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>2379</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3685,25 +3721,25 @@
         <v>120</v>
       </c>
       <c r="K79">
-        <v>0.02013422818791946</v>
+        <v>0.01608040201005025</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>876</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3711,25 +3747,25 @@
         <v>40</v>
       </c>
       <c r="K80">
-        <v>0.01919446192573946</v>
+        <v>0.01601875366282477</v>
       </c>
       <c r="L80">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M80">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="N80">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="O80">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3117</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3737,25 +3773,25 @@
         <v>121</v>
       </c>
       <c r="K81">
-        <v>0.01796875</v>
+        <v>0.01517067003792667</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M81">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N81">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="O81">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1257</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3763,311 +3799,181 @@
         <v>122</v>
       </c>
       <c r="K82">
-        <v>0.01641414141414142</v>
+        <v>0.01455301455301455</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M82">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N82">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O82">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1558</v>
+        <v>948</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>0.01446051167964405</v>
+        <v>0.01163061177017911</v>
       </c>
       <c r="L83">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M83">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="N83">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="O83">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>886</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K84">
-        <v>0.01408726276658188</v>
+        <v>0.01040681173131504</v>
       </c>
       <c r="L84">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M84">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="N84">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="O84">
-        <v>0.43</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>5039</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K85">
-        <v>0.01390848619229994</v>
+        <v>0.00962800875273523</v>
       </c>
       <c r="L85">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="N85">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="O85">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>4892</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>0.01384228187919463</v>
+        <v>0.009341429238673517</v>
       </c>
       <c r="L86">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M86">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N86">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
       <c r="O86">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2351</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K87">
-        <v>0.01380295097572585</v>
+        <v>0.008102345415778251</v>
       </c>
       <c r="L87">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M87">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="N87">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="O87">
-        <v>0.5900000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>2072</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="K88">
-        <v>0.01354166666666667</v>
+        <v>0.007861120209629872</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M88">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N88">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="O88">
-        <v>0.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K89">
-        <v>0.01303538175046555</v>
-      </c>
-      <c r="L89">
-        <v>28</v>
-      </c>
-      <c r="M89">
-        <v>38</v>
-      </c>
-      <c r="N89">
-        <v>0.74</v>
-      </c>
-      <c r="O89">
-        <v>0.26</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90">
-        <v>0.01223241590214067</v>
-      </c>
-      <c r="L90">
-        <v>28</v>
-      </c>
-      <c r="M90">
-        <v>48</v>
-      </c>
-      <c r="N90">
-        <v>0.58</v>
-      </c>
-      <c r="O90">
-        <v>0.42</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K91">
-        <v>0.01186874563649058</v>
-      </c>
-      <c r="L91">
-        <v>51</v>
-      </c>
-      <c r="M91">
-        <v>82</v>
-      </c>
-      <c r="N91">
-        <v>0.62</v>
-      </c>
-      <c r="O91">
-        <v>0.38</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K92">
-        <v>0.0115138592750533</v>
-      </c>
-      <c r="L92">
-        <v>27</v>
-      </c>
-      <c r="M92">
-        <v>61</v>
-      </c>
-      <c r="N92">
-        <v>0.44</v>
-      </c>
-      <c r="O92">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K93">
-        <v>0.004596191726854892</v>
-      </c>
-      <c r="L93">
-        <v>14</v>
-      </c>
-      <c r="M93">
-        <v>75</v>
-      </c>
-      <c r="N93">
-        <v>0.19</v>
-      </c>
-      <c r="O93">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>3032</v>
+        <v>3029</v>
       </c>
     </row>
   </sheetData>
